--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Notch3</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H2">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I2">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J2">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.49790693918736</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N2">
-        <v>3.49790693918736</v>
+        <v>11.65372</v>
       </c>
       <c r="O2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q2">
-        <v>35.53135399587349</v>
+        <v>3.021836788013334</v>
       </c>
       <c r="R2">
-        <v>35.53135399587349</v>
+        <v>27.19653109212</v>
       </c>
       <c r="S2">
-        <v>0.08678914484639509</v>
+        <v>0.006490639664859171</v>
       </c>
       <c r="T2">
-        <v>0.08678914484639509</v>
+        <v>0.006490639664859172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H3">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I3">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J3">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.61940000434991</v>
+        <v>6.662909</v>
       </c>
       <c r="N3">
-        <v>6.61940000434991</v>
+        <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q3">
-        <v>67.23913725660307</v>
+        <v>5.183123551463</v>
       </c>
       <c r="R3">
-        <v>67.23913725660307</v>
+        <v>46.648111963167</v>
       </c>
       <c r="S3">
-        <v>0.1642388078818414</v>
+        <v>0.0111328935581292</v>
       </c>
       <c r="T3">
-        <v>0.1642388078818414</v>
+        <v>0.01113289355812921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H4">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I4">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J4">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.105794767457187</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N4">
-        <v>0.105794767457187</v>
+        <v>0.14758</v>
       </c>
       <c r="O4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q4">
-        <v>1.074651612745802</v>
+        <v>0.03826783835333333</v>
       </c>
       <c r="R4">
-        <v>1.074651612745802</v>
+        <v>0.34441054518</v>
       </c>
       <c r="S4">
-        <v>0.002624951880213723</v>
+        <v>8.219595131339318E-05</v>
       </c>
       <c r="T4">
-        <v>0.002624951880213723</v>
+        <v>8.219595131339319E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.1578900221194</v>
+        <v>0.777907</v>
       </c>
       <c r="H5">
-        <v>10.1578900221194</v>
+        <v>2.333721</v>
       </c>
       <c r="I5">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J5">
-        <v>0.9859462042691834</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.5139884018581</v>
+        <v>0.106491</v>
       </c>
       <c r="N5">
-        <v>29.5139884018581</v>
+        <v>0.319473</v>
       </c>
       <c r="O5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q5">
-        <v>299.7998483001821</v>
+        <v>0.082840094337</v>
       </c>
       <c r="R5">
-        <v>299.7998483001821</v>
+        <v>0.745560849033</v>
       </c>
       <c r="S5">
-        <v>0.7322932996607333</v>
+        <v>0.0001779332372539888</v>
       </c>
       <c r="T5">
-        <v>0.7322932996607333</v>
+        <v>0.0001779332372539888</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.144791785605363</v>
+        <v>0.777907</v>
       </c>
       <c r="H6">
-        <v>0.144791785605363</v>
+        <v>2.333721</v>
       </c>
       <c r="I6">
-        <v>0.01405379573081649</v>
+        <v>0.06867740520458042</v>
       </c>
       <c r="J6">
-        <v>0.01405379573081649</v>
+        <v>0.06867740520458043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.49790693918736</v>
+        <v>30.399472</v>
       </c>
       <c r="N6">
-        <v>3.49790693918736</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q6">
-        <v>0.5064681916063277</v>
+        <v>23.647962065104</v>
       </c>
       <c r="R6">
-        <v>0.5064681916063277</v>
+        <v>212.831658585936</v>
       </c>
       <c r="S6">
-        <v>0.001237102904846189</v>
+        <v>0.05079374279302466</v>
       </c>
       <c r="T6">
-        <v>0.001237102904846189</v>
+        <v>0.05079374279302468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H7">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I7">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J7">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.61940000434991</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N7">
-        <v>6.61940000434991</v>
+        <v>11.65372</v>
       </c>
       <c r="O7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q7">
-        <v>0.958434746265971</v>
+        <v>40.09893942097334</v>
       </c>
       <c r="R7">
-        <v>0.958434746265971</v>
+        <v>360.89045478876</v>
       </c>
       <c r="S7">
-        <v>0.002341079713121987</v>
+        <v>0.08612899537028411</v>
       </c>
       <c r="T7">
-        <v>0.002341079713121987</v>
+        <v>0.08612899537028411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.144791785605363</v>
+        <v>10.322611</v>
       </c>
       <c r="H8">
-        <v>0.144791785605363</v>
+        <v>30.967833</v>
       </c>
       <c r="I8">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="J8">
-        <v>0.01405379573081649</v>
+        <v>0.911330195532704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.105794767457187</v>
+        <v>6.662909</v>
       </c>
       <c r="N8">
-        <v>0.105794767457187</v>
+        <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q8">
-        <v>0.01531821328783025</v>
+        <v>68.778617735399</v>
       </c>
       <c r="R8">
-        <v>0.01531821328783025</v>
+        <v>619.007559618591</v>
       </c>
       <c r="S8">
-        <v>3.741637968482351E-05</v>
+        <v>0.1477304221519715</v>
       </c>
       <c r="T8">
-        <v>3.741637968482351E-05</v>
+        <v>0.1477304221519715</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.322611</v>
+      </c>
+      <c r="H9">
+        <v>30.967833</v>
+      </c>
+      <c r="I9">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="J9">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.14758</v>
+      </c>
+      <c r="O9">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P9">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q9">
+        <v>0.5078036437933333</v>
+      </c>
+      <c r="R9">
+        <v>4.57023279414</v>
+      </c>
+      <c r="S9">
+        <v>0.00109071756801661</v>
+      </c>
+      <c r="T9">
+        <v>0.00109071756801661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.322611</v>
+      </c>
+      <c r="H10">
+        <v>30.967833</v>
+      </c>
+      <c r="I10">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="J10">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.106491</v>
+      </c>
+      <c r="N10">
+        <v>0.319473</v>
+      </c>
+      <c r="O10">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P10">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q10">
+        <v>1.099265168001</v>
+      </c>
+      <c r="R10">
+        <v>9.893386512009</v>
+      </c>
+      <c r="S10">
+        <v>0.002361124905861028</v>
+      </c>
+      <c r="T10">
+        <v>0.002361124905861028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.322611</v>
+      </c>
+      <c r="H11">
+        <v>30.967833</v>
+      </c>
+      <c r="I11">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="J11">
+        <v>0.911330195532704</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30.399472</v>
+      </c>
+      <c r="N11">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O11">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P11">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q11">
+        <v>313.801924061392</v>
+      </c>
+      <c r="R11">
+        <v>2824.217316552528</v>
+      </c>
+      <c r="S11">
+        <v>0.6740189355365707</v>
+      </c>
+      <c r="T11">
+        <v>0.6740189355365708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J12">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.884573333333333</v>
+      </c>
+      <c r="N12">
+        <v>11.65372</v>
+      </c>
+      <c r="O12">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="P12">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="Q12">
+        <v>0.8796745799111113</v>
+      </c>
+      <c r="R12">
+        <v>7.9170712192</v>
+      </c>
+      <c r="S12">
+        <v>0.001889463634564169</v>
+      </c>
+      <c r="T12">
+        <v>0.001889463634564169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.144791785605363</v>
-      </c>
-      <c r="H9">
-        <v>0.144791785605363</v>
-      </c>
-      <c r="I9">
-        <v>0.01405379573081649</v>
-      </c>
-      <c r="J9">
-        <v>0.01405379573081649</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>29.5139884018581</v>
-      </c>
-      <c r="N9">
-        <v>29.5139884018581</v>
-      </c>
-      <c r="O9">
-        <v>0.7427314963938968</v>
-      </c>
-      <c r="P9">
-        <v>0.7427314963938968</v>
-      </c>
-      <c r="Q9">
-        <v>4.273383081041008</v>
-      </c>
-      <c r="R9">
-        <v>4.273383081041008</v>
-      </c>
-      <c r="S9">
-        <v>0.01043819673316349</v>
-      </c>
-      <c r="T9">
-        <v>0.01043819673316349</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J13">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.662909</v>
+      </c>
+      <c r="N13">
+        <v>19.988727</v>
+      </c>
+      <c r="O13">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P13">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q13">
+        <v>1.508837952746667</v>
+      </c>
+      <c r="R13">
+        <v>13.57954157472</v>
+      </c>
+      <c r="S13">
+        <v>0.003240851227567758</v>
+      </c>
+      <c r="T13">
+        <v>0.00324085122756776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J14">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.14758</v>
+      </c>
+      <c r="O14">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P14">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q14">
+        <v>0.01113999431111111</v>
+      </c>
+      <c r="R14">
+        <v>0.1002599488</v>
+      </c>
+      <c r="S14">
+        <v>2.392772807215036E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.392772807215036E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J15">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.106491</v>
+      </c>
+      <c r="N15">
+        <v>0.319473</v>
+      </c>
+      <c r="O15">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P15">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q15">
+        <v>0.02411524192000001</v>
+      </c>
+      <c r="R15">
+        <v>0.21703717728</v>
+      </c>
+      <c r="S15">
+        <v>5.17974188263592E-05</v>
+      </c>
+      <c r="T15">
+        <v>5.179741882635922E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2264533333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.6793600000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.01999239926271553</v>
+      </c>
+      <c r="J16">
+        <v>0.01999239926271554</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.399472</v>
+      </c>
+      <c r="N16">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O16">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P16">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q16">
+        <v>6.884061765973335</v>
+      </c>
+      <c r="R16">
+        <v>61.95655589376001</v>
+      </c>
+      <c r="S16">
+        <v>0.0147863592536851</v>
+      </c>
+      <c r="T16">
+        <v>0.0147863592536851</v>
       </c>
     </row>
   </sheetData>
